--- a/ArchitectureTask/goals and attributes.xlsx
+++ b/ArchitectureTask/goals and attributes.xlsx
@@ -50,9 +50,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>Consume source application through adapters that adapt their data to the central data model</t>
-  </si>
-  <si>
     <t>Interoperability</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Robustness</t>
+  </si>
+  <si>
+    <t>Consume source applications through adapters that adapt their data to the central data model</t>
   </si>
 </sst>
 </file>
@@ -183,12 +183,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,13 +191,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,20 +499,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -520,90 +520,90 @@
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
